--- a/Buku ke 2.xlsx
+++ b/Buku ke 2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Titipan\Nova Nitip\Personal\InformaticsClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7E692C-0DD5-4248-AC53-2F24FFCC0D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C107E-717C-48C0-8E79-AE449CF36E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2F39A6CB-2847-422E-B973-588C17DDE2D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BAB II" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Graphic</t>
   </si>
@@ -79,13 +79,61 @@
   </si>
   <si>
     <t>Desember</t>
+  </si>
+  <si>
+    <t>Daerah</t>
+  </si>
+  <si>
+    <t>Daerah 1</t>
+  </si>
+  <si>
+    <t>Daerah 2</t>
+  </si>
+  <si>
+    <t>Daerah 3</t>
+  </si>
+  <si>
+    <t>Daerah 4</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Bagan</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>Rudi</t>
+  </si>
+  <si>
+    <t>Cusni</t>
+  </si>
+  <si>
+    <t>Reza</t>
+  </si>
+  <si>
+    <t>Ikmal</t>
+  </si>
+  <si>
+    <t>Mumun</t>
+  </si>
+  <si>
+    <t>Ucil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +141,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +172,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,10 +212,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,8 +225,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9F3FEC-E2AA-4360-B273-50BA1A18F9AE}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,11 +581,11 @@
       </c>
       <c r="C3" s="1">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1">REPT("*",ROUND(C3/2,0))</f>
-        <v>************************************************</v>
+        <v>****************************************</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -501,11 +594,11 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C14" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" ref="D4:D14" ca="1" si="1">REPT("*",ROUND(C4/2,0))</f>
-        <v>**********************************</v>
+        <v>*************************************</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -514,11 +607,11 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>****************************</v>
+        <v>**********************************************</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -527,11 +620,11 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>**************************************</v>
+        <v>*******************************************</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -540,11 +633,11 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>********************************************</v>
+        <v>*******************************************</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -553,11 +646,11 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>*********************************</v>
+        <v>************************************************</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -566,11 +659,11 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>************************************</v>
+        <v>****************************</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -579,11 +672,11 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>*****************************************</v>
+        <v>*************************************</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -592,11 +685,11 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>**********************************************</v>
+        <v>************************************************</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -605,11 +698,11 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>**********************************</v>
+        <v>*************************************</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -618,11 +711,11 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>******************************</v>
+        <v>**********************************</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -638,7 +731,250 @@
         <v>*********************************************</v>
       </c>
     </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <f ca="1">RANDBETWEEN(100000,1000000)</f>
+        <v>235907</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f ca="1">REPT("|",ROUND(C17/12500,0))</f>
+        <v>|||||||||||||||||||</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:C20" ca="1" si="2">RANDBETWEEN(100000,1000000)</f>
+        <v>310786</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" ref="D17:D18" ca="1" si="3">REPT("|",ROUND(C18/12500,0))</f>
+        <v>|||||||||||||||||||||||||</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>501499</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f ca="1">REPT("|",ROUND(C19/12500,0))</f>
+        <v>||||||||||||||||||||||||||||||||||||||||</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>705006</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f ca="1">REPT("|",ROUND(C20/12500,0))</f>
+        <v>||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5">
+        <f ca="1">RANDBETWEEN(1000,10000)</f>
+        <v>9587</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f ca="1">REPT("*",ROUND(C23/425,0))</f>
+        <v>***********************</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:C29" ca="1" si="4">RANDBETWEEN(1000,10000)</f>
+        <v>2429</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f t="shared" ref="D24:D29" ca="1" si="5">REPT("*",ROUND(C24/425,0))</f>
+        <v>******</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>1879</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>****</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>1779</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>****</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>7421</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>*****************</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>8461</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>********************</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>4405</v>
+      </c>
+      <c r="D29" s="6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>**********</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8">
+        <f ca="1">RANDBETWEEN(100000,200000)</f>
+        <v>184120</v>
+      </c>
+      <c r="D32" s="6" t="str">
+        <f ca="1">REPT("g",ROUND(C32/8000,0))</f>
+        <v>ggggggggggggggggggggggg</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" ref="C33:C36" ca="1" si="6">RANDBETWEEN(100000,200000)</f>
+        <v>165725</v>
+      </c>
+      <c r="D33" s="6" t="str">
+        <f t="shared" ref="D33:D36" ca="1" si="7">REPT("g",ROUND(C33/8000,0))</f>
+        <v>ggggggggggggggggggggg</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" ca="1" si="6"/>
+        <v>171570</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>ggggggggggggggggggggg</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" ca="1" si="6"/>
+        <v>147891</v>
+      </c>
+      <c r="D35" s="6" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>gggggggggggggggggg</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" ca="1" si="6"/>
+        <v>129677</v>
+      </c>
+      <c r="D36" s="6" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>gggggggggggggggg</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Buku ke 2.xlsx
+++ b/Buku ke 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Titipan\Nova Nitip\Personal\InformaticsClass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nova\Personal\InformaticsClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C107E-717C-48C0-8E79-AE449CF36E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BCF361-2144-4162-8793-CA658B13E04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2F39A6CB-2847-422E-B973-588C17DDE2D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Graphic</t>
   </si>
@@ -124,6 +124,57 @@
   </si>
   <si>
     <t>Ucil</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Pct. Diff</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Under Budger</t>
+  </si>
+  <si>
+    <t>Exceeded Budget</t>
   </si>
 </sst>
 </file>
@@ -133,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +210,12 @@
       <color theme="1"/>
       <name val="Webdings"/>
       <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
       <charset val="2"/>
     </font>
   </fonts>
@@ -216,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +293,12 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -551,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9F3FEC-E2AA-4360-B273-50BA1A18F9AE}">
-  <dimension ref="B2:D36"/>
+  <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,9 +625,13 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -574,164 +641,410 @@
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1">REPT("*",ROUND(C3/2,0))</f>
-        <v>****************************************</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>**************************************************</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="9">
+        <v>300</v>
+      </c>
+      <c r="H3" s="1">
+        <v>311</v>
+      </c>
+      <c r="I3" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="9" t="str">
+        <f>F3</f>
+        <v>Jan</v>
+      </c>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C14" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" ref="D4:D14" ca="1" si="1">REPT("*",ROUND(C4/2,0))</f>
-        <v>*************************************</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>*************************************************</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9">
+        <v>300</v>
+      </c>
+      <c r="H4" s="1">
+        <v>343</v>
+      </c>
+      <c r="I4" s="2">
+        <f>ROUND((H4-G4)/G4*100,1)</f>
+        <v>14.3</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="9" t="str">
+        <f t="shared" ref="L4:L14" si="2">F4</f>
+        <v>Feb</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>**********************************************</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>**********************************</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9">
+        <v>300</v>
+      </c>
+      <c r="H5" s="1">
+        <v>305</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I4:I14" si="3">ROUND((H5-G5)/G5*100,1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>*******************************************</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>**************************************************</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="9">
+        <v>350</v>
+      </c>
+      <c r="H6" s="1">
+        <v>351</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Apr</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>*******************************************</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>******************************</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="9">
+        <v>350</v>
+      </c>
+      <c r="H7" s="1">
+        <v>402</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>14.9</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>May</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>************************************************</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+        <v>*****************************************</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="9">
+        <v>350</v>
+      </c>
+      <c r="H8" s="1">
+        <v>409</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Jun</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>****************************</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>***********************************</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="9">
+        <v>500</v>
+      </c>
+      <c r="H9" s="1">
+        <v>421</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>-15.8</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Jul</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>*************************************</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>***************************</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9">
+        <v>500</v>
+      </c>
+      <c r="H10" s="1">
+        <v>454</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Aug</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>************************************************</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+        <v>**************************</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="9">
+        <v>500</v>
+      </c>
+      <c r="H11" s="1">
+        <v>474</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.2</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Sep</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>*************************************</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+        <v>***************************</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="9">
+        <v>500</v>
+      </c>
+      <c r="H12" s="1">
+        <v>521</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Oct</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>**********************************</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+        <v>************************************************</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="9">
+        <v>500</v>
+      </c>
+      <c r="H13" s="1">
+        <v>476</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.8</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Nov</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>*********************************************</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+        <v>*************************************</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="9">
+        <v>500</v>
+      </c>
+      <c r="H14" s="1">
+        <v>487</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.6</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Dec</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
@@ -748,11 +1061,11 @@
       </c>
       <c r="C17" s="5">
         <f ca="1">RANDBETWEEN(100000,1000000)</f>
-        <v>235907</v>
+        <v>479625</v>
       </c>
       <c r="D17" s="2" t="str">
         <f ca="1">REPT("|",ROUND(C17/12500,0))</f>
-        <v>|||||||||||||||||||</v>
+        <v>||||||||||||||||||||||||||||||||||||||</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -760,12 +1073,12 @@
         <v>17</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:C20" ca="1" si="2">RANDBETWEEN(100000,1000000)</f>
-        <v>310786</v>
+        <f t="shared" ref="C18:C20" ca="1" si="4">RANDBETWEEN(100000,1000000)</f>
+        <v>913228</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" ref="D17:D18" ca="1" si="3">REPT("|",ROUND(C18/12500,0))</f>
-        <v>|||||||||||||||||||||||||</v>
+        <f t="shared" ref="D18" ca="1" si="5">REPT("|",ROUND(C18/12500,0))</f>
+        <v>|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -773,12 +1086,12 @@
         <v>18</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>501499</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>658497</v>
       </c>
       <c r="D19" s="2" t="str">
         <f ca="1">REPT("|",ROUND(C19/12500,0))</f>
-        <v>||||||||||||||||||||||||||||||||||||||||</v>
+        <v>|||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -786,12 +1099,12 @@
         <v>19</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>705006</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>972136</v>
       </c>
       <c r="D20" s="2" t="str">
         <f ca="1">REPT("|",ROUND(C20/12500,0))</f>
-        <v>||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
+        <v>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -811,11 +1124,11 @@
       </c>
       <c r="C23" s="5">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>9587</v>
+        <v>1638</v>
       </c>
       <c r="D23" s="6" t="str">
         <f ca="1">REPT("*",ROUND(C23/425,0))</f>
-        <v>***********************</v>
+        <v>****</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -823,12 +1136,12 @@
         <v>24</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" ref="C24:C29" ca="1" si="4">RANDBETWEEN(1000,10000)</f>
-        <v>2429</v>
+        <f t="shared" ref="C24:C29" ca="1" si="6">RANDBETWEEN(1000,10000)</f>
+        <v>7231</v>
       </c>
       <c r="D24" s="6" t="str">
-        <f t="shared" ref="D24:D29" ca="1" si="5">REPT("*",ROUND(C24/425,0))</f>
-        <v>******</v>
+        <f t="shared" ref="D24:D29" ca="1" si="7">REPT("*",ROUND(C24/425,0))</f>
+        <v>*****************</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -836,11 +1149,11 @@
         <v>25</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>1879</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1841</v>
       </c>
       <c r="D25" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>****</v>
       </c>
     </row>
@@ -849,12 +1162,12 @@
         <v>26</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>1779</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3100</v>
       </c>
       <c r="D26" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>****</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>*******</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -862,12 +1175,12 @@
         <v>27</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>7421</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4084</v>
       </c>
       <c r="D27" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>*****************</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>**********</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -875,12 +1188,12 @@
         <v>28</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>8461</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6642</v>
       </c>
       <c r="D28" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>********************</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>****************</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -888,12 +1201,12 @@
         <v>29</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>4405</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4522</v>
       </c>
       <c r="D29" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>**********</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>***********</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -913,11 +1226,11 @@
       </c>
       <c r="C32" s="8">
         <f ca="1">RANDBETWEEN(100000,200000)</f>
-        <v>184120</v>
+        <v>137486</v>
       </c>
       <c r="D32" s="6" t="str">
         <f ca="1">REPT("g",ROUND(C32/8000,0))</f>
-        <v>ggggggggggggggggggggggg</v>
+        <v>ggggggggggggggggg</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -925,12 +1238,12 @@
         <v>4</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" ref="C33:C36" ca="1" si="6">RANDBETWEEN(100000,200000)</f>
-        <v>165725</v>
+        <f t="shared" ref="C33:C36" ca="1" si="8">RANDBETWEEN(100000,200000)</f>
+        <v>148224</v>
       </c>
       <c r="D33" s="6" t="str">
-        <f t="shared" ref="D33:D36" ca="1" si="7">REPT("g",ROUND(C33/8000,0))</f>
-        <v>ggggggggggggggggggggg</v>
+        <f t="shared" ref="D33:D36" ca="1" si="9">REPT("g",ROUND(C33/8000,0))</f>
+        <v>ggggggggggggggggggg</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -938,12 +1251,12 @@
         <v>5</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>171570</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>179489</v>
       </c>
       <c r="D34" s="6" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>ggggggggggggggggggggg</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>gggggggggggggggggggggg</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -951,12 +1264,12 @@
         <v>6</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>147891</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>197661</v>
       </c>
       <c r="D35" s="6" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>gggggggggggggggggg</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>ggggggggggggggggggggggggg</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -964,12 +1277,12 @@
         <v>7</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>129677</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>199871</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>gggggggggggggggg</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>ggggggggggggggggggggggggg</v>
       </c>
     </row>
   </sheetData>
